--- a/docss/trend/spain/E_neuron.xlsx
+++ b/docss/trend/spain/E_neuron.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej7_Motoneurona_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej7_Motoneurona" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12809,7 +12809,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12833,13 +12833,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>1.2394760961673703</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="C2">
-        <v>1.4664145011059091</v>
+        <v>1.466</v>
       </c>
       <c r="D2">
-        <v>1.0481405902838221</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,13 +12847,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>1.3303027244045567</v>
+        <v>1.33</v>
       </c>
       <c r="C3">
-        <v>1.6842950145938742</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="D3">
-        <v>1.0248397374840361</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12861,13 +12861,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>1.4012433286523516</v>
+        <v>1.401</v>
       </c>
       <c r="C4">
-        <v>1.7574258429958847</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="D4">
-        <v>1.0956292826099319</v>
+        <v>1.0960000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12875,13 +12875,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>1.3926185900373791</v>
+        <v>1.393</v>
       </c>
       <c r="C5">
-        <v>1.6553946982589594</v>
+        <v>1.655</v>
       </c>
       <c r="D5">
-        <v>1.1558148203507912</v>
+        <v>1.1559999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12889,13 +12889,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>1.4002307129660441</v>
+        <v>1.4</v>
       </c>
       <c r="C6">
-        <v>1.5379644207087435</v>
+        <v>1.538</v>
       </c>
       <c r="D6">
-        <v>1.2791077662719272</v>
+        <v>1.2789999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12903,13 +12903,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>1.3827218404269805</v>
+        <v>1.383</v>
       </c>
       <c r="C7">
-        <v>1.5595530502790012</v>
+        <v>1.56</v>
       </c>
       <c r="D7">
-        <v>1.2252105044863479</v>
+        <v>1.2250000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12917,13 +12917,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>1.4359357402273507</v>
+        <v>1.4359999999999999</v>
       </c>
       <c r="C8">
-        <v>1.7126882204435818</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="D8">
-        <v>1.1976362375818388</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12931,13 +12931,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>1.4050043004975272</v>
+        <v>1.405</v>
       </c>
       <c r="C9">
-        <v>1.6457624808160138</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="D9">
-        <v>1.2017712496553357</v>
+        <v>1.202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,13 +12945,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>1.5059093769349163</v>
+        <v>1.506</v>
       </c>
       <c r="C10">
-        <v>1.6624395332768513</v>
+        <v>1.6619999999999999</v>
       </c>
       <c r="D10">
-        <v>1.3644354887526622</v>
+        <v>1.3640000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12959,13 +12959,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>1.5084876814677493</v>
+        <v>1.508</v>
       </c>
       <c r="C11">
-        <v>1.7586964929646711</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="D11">
-        <v>1.2930806445868124</v>
+        <v>1.2929999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12973,13 +12973,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>1.4492071669073732</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="C12">
-        <v>1.634750830935493</v>
+        <v>1.635</v>
       </c>
       <c r="D12">
-        <v>1.2950721864690649</v>
+        <v>1.2949999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12987,13 +12987,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>1.4742176809748628</v>
+        <v>1.474</v>
       </c>
       <c r="C13">
-        <v>1.7026960181416617</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="D13">
-        <v>1.2755952724039008</v>
+        <v>1.276</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13001,13 +13001,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>1.5009374688705008</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="C14">
-        <v>1.7918676545942382</v>
+        <v>1.792</v>
       </c>
       <c r="D14">
-        <v>1.2573958051283805</v>
+        <v>1.2569999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13015,13 +13015,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>1.561820712291901</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="C15">
-        <v>1.7841171986599231</v>
+        <v>1.784</v>
       </c>
       <c r="D15">
-        <v>1.3728096280265794</v>
+        <v>1.373</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13029,13 +13029,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>1.4964498337815433</v>
+        <v>1.496</v>
       </c>
       <c r="C16">
-        <v>1.816567623591459</v>
+        <v>1.8169999999999999</v>
       </c>
       <c r="D16">
-        <v>1.2047983437878127</v>
+        <v>1.2050000000000001</v>
       </c>
     </row>
   </sheetData>
